--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,227 @@
   </si>
   <si>
     <t>Divide Two Integers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.030</t>
+  </si>
+  <si>
+    <t>No.031</t>
+  </si>
+  <si>
+    <t>No.032</t>
+  </si>
+  <si>
+    <t>No.033</t>
+  </si>
+  <si>
+    <t>No.034</t>
+  </si>
+  <si>
+    <t>No.035</t>
+  </si>
+  <si>
+    <t>No.036</t>
+  </si>
+  <si>
+    <t>No.037</t>
+  </si>
+  <si>
+    <t>No.038</t>
+  </si>
+  <si>
+    <t>No.039</t>
+  </si>
+  <si>
+    <t>No.040</t>
+  </si>
+  <si>
+    <t>No.041</t>
+  </si>
+  <si>
+    <t>No.042</t>
+  </si>
+  <si>
+    <t>No.043</t>
+  </si>
+  <si>
+    <t>No.044</t>
+  </si>
+  <si>
+    <t>No.045</t>
+  </si>
+  <si>
+    <t>No.046</t>
+  </si>
+  <si>
+    <t>No.047</t>
+  </si>
+  <si>
+    <t>No.048</t>
+  </si>
+  <si>
+    <t>No.049</t>
+  </si>
+  <si>
+    <t>No.050</t>
+  </si>
+  <si>
+    <t>No.051</t>
+  </si>
+  <si>
+    <t>No.052</t>
+  </si>
+  <si>
+    <t>No.053</t>
+  </si>
+  <si>
+    <t>No.054</t>
+  </si>
+  <si>
+    <t>No.055</t>
+  </si>
+  <si>
+    <t>No.056</t>
+  </si>
+  <si>
+    <t>No.057</t>
+  </si>
+  <si>
+    <t>No.058</t>
+  </si>
+  <si>
+    <t>No.059</t>
+  </si>
+  <si>
+    <t>No.060</t>
+  </si>
+  <si>
+    <t>No.061</t>
+  </si>
+  <si>
+    <t>No.062</t>
+  </si>
+  <si>
+    <t>No.063</t>
+  </si>
+  <si>
+    <t>No.064</t>
+  </si>
+  <si>
+    <t>No.065</t>
+  </si>
+  <si>
+    <t>No.066</t>
+  </si>
+  <si>
+    <t>No.067</t>
+  </si>
+  <si>
+    <t>No.068</t>
+  </si>
+  <si>
+    <t>No.069</t>
+  </si>
+  <si>
+    <t>No.070</t>
+  </si>
+  <si>
+    <t>No.071</t>
+  </si>
+  <si>
+    <t>No.072</t>
+  </si>
+  <si>
+    <t>No.073</t>
+  </si>
+  <si>
+    <t>No.074</t>
+  </si>
+  <si>
+    <t>No.075</t>
+  </si>
+  <si>
+    <t>No.076</t>
+  </si>
+  <si>
+    <t>No.077</t>
+  </si>
+  <si>
+    <t>No.078</t>
+  </si>
+  <si>
+    <t>No.079</t>
+  </si>
+  <si>
+    <t>No.080</t>
+  </si>
+  <si>
+    <t>No.081</t>
+  </si>
+  <si>
+    <t>No.082</t>
+  </si>
+  <si>
+    <t>No.083</t>
+  </si>
+  <si>
+    <t>No.084</t>
+  </si>
+  <si>
+    <t>No.085</t>
+  </si>
+  <si>
+    <t>No.086</t>
+  </si>
+  <si>
+    <t>No.087</t>
+  </si>
+  <si>
+    <t>No.088</t>
+  </si>
+  <si>
+    <t>No.089</t>
+  </si>
+  <si>
+    <t>No.090</t>
+  </si>
+  <si>
+    <t>No.091</t>
+  </si>
+  <si>
+    <t>No.092</t>
+  </si>
+  <si>
+    <t>No.093</t>
+  </si>
+  <si>
+    <t>No.094</t>
+  </si>
+  <si>
+    <t>No.095</t>
+  </si>
+  <si>
+    <t>No.096</t>
+  </si>
+  <si>
+    <t>No.097</t>
+  </si>
+  <si>
+    <t>No.098</t>
+  </si>
+  <si>
+    <t>No.099</t>
+  </si>
+  <si>
+    <t>No.100</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1303,7 +1525,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1311,7 +1535,9 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="20.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1319,7 +1545,9 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="20.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1327,7 +1555,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="20.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1335,7 +1565,9 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="20.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1343,7 +1575,9 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="20.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1351,7 +1585,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="20.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1359,7 +1595,9 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="20.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1367,7 +1605,9 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="20.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1375,7 +1615,9 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="20.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1383,7 +1625,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="20.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1391,7 +1635,9 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="20.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1399,7 +1645,9 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="20.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1407,7 +1655,9 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="20.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1415,7 +1665,9 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="20.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1423,7 +1675,9 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="20.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1431,7 +1685,9 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="20.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1439,7 +1695,9 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="20.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="B48" s="5"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1447,7 +1705,9 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="20.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1455,7 +1715,9 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="20.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1463,7 +1725,9 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="20.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1471,7 +1735,9 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="20.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1479,7 +1745,9 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="20.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1487,7 +1755,9 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="20.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1495,7 +1765,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="20.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1503,7 +1775,9 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="20.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1511,7 +1785,9 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="20.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1519,12 +1795,244 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="20.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.25">
+      <c r="A59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.25">
+      <c r="A60" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20.25">
+      <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.25">
+      <c r="A62" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.25">
+      <c r="A63" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20.25">
+      <c r="A64" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.25">
+      <c r="A65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.25">
+      <c r="A66" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.25">
+      <c r="A67" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.25">
+      <c r="A68" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.25">
+      <c r="A69" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20.25">
+      <c r="A70" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20.25">
+      <c r="A71" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20.25">
+      <c r="A72" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20.25">
+      <c r="A73" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20.25">
+      <c r="A74" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="20.25">
+      <c r="A75" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.25">
+      <c r="A76" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="5" customFormat="1" ht="20.25">
+      <c r="A77" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="3">
+        <v>268</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20.25">
+      <c r="A78" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.25">
+      <c r="A79" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.25">
+      <c r="A80" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20.25">
+      <c r="A81" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20.25">
+      <c r="A82" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="20.25">
+      <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="20.25">
+      <c r="A84" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="20.25">
+      <c r="A85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="20.25">
+      <c r="A86" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="20.25">
+      <c r="A87" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="20.25">
+      <c r="A88" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="20.25">
+      <c r="A89" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="20.25">
+      <c r="A90" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20.25">
+      <c r="A91" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="20.25">
+      <c r="A92" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="20.25">
+      <c r="A93" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20.25">
+      <c r="A94" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="20.25">
+      <c r="A95" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="20.25">
+      <c r="A96" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="20.25">
+      <c r="A97" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="20.25">
+      <c r="A98" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20.25">
+      <c r="A99" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20.25">
+      <c r="A100" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="20.25">
+      <c r="A101" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F21"/>

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,14 @@
   </si>
   <si>
     <t>Minimum Window Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -909,8 +917,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1528,11 +1536,21 @@
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3">
+        <v>169</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.95879999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="20.25">
       <c r="A32" s="3" t="s">

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
@@ -19,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +525,14 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +923,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1556,11 +1562,21 @@
       <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="3">
+        <v>265</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.90890000000000004</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="20.25">
       <c r="A33" s="3" t="s">
@@ -2058,32 +2074,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,14 @@
   </si>
   <si>
     <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +932,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1582,11 +1590,21 @@
       <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="3">
+        <v>229</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.87680000000000002</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="20.25">
       <c r="A34" s="3" t="s">

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="158">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1610,11 +1618,21 @@
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="3">
+        <v>196</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.95730000000000004</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="20.25">
       <c r="A35" s="3" t="s">

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,10 @@
   </si>
   <si>
     <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +944,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1638,11 +1642,21 @@
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3">
+        <v>87</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.86119999999999997</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="20.25">
       <c r="A36" s="3" t="s">

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,14 @@
   </si>
   <si>
     <t>Search for a Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,9 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1662,11 +1670,21 @@
       <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="3">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.76649999999999996</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="20.25">
       <c r="A37" s="3" t="s">

--- a/LeetCode时间记录表.xlsx
+++ b/LeetCode时间记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,10 @@
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,9 +954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1690,11 +1694,21 @@
       <c r="A37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3">
+        <v>501</v>
+      </c>
+      <c r="E37" s="3">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.92230000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="20.25">
       <c r="A38" s="3" t="s">
